--- a/doc/user-guide/cookbook/operation/operation-routing.xlsx
+++ b/doc/user-guide/cookbook/operation/operation-routing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community-4.2\doc\user-guide\cookbook\operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8025" tabRatio="876"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8025" tabRatio="876" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7074" uniqueCount="3548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="3549">
   <si>
     <t>Name</t>
   </si>
@@ -10688,6 +10688,9 @@
   </si>
   <si>
     <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>lazydelay</t>
   </si>
 </sst>
 </file>
@@ -11048,7 +11051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -11120,10 +11123,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11201,7 +11204,7 @@
         <v>51</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
@@ -11227,6 +11230,14 @@
       </c>
       <c r="C9" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B10">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -70656,7 +70667,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/doc/user-guide/cookbook/operation/operation-routing.xlsx
+++ b/doc/user-guide/cookbook/operation/operation-routing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\enterprise\doc\user-guide\cookbook\operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C256853D-D86A-4565-9BFC-A331251DFEC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8025" tabRatio="876" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="876" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -20,19 +21,17 @@
     <sheet name="item supplier" sheetId="6" r:id="rId6"/>
     <sheet name="operation" sheetId="7" r:id="rId7"/>
     <sheet name="operation material" sheetId="8" r:id="rId8"/>
-    <sheet name="suboperation" sheetId="9" r:id="rId9"/>
-    <sheet name="parameter" sheetId="10" r:id="rId10"/>
+    <sheet name="parameter" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">customer!$A:$A</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item!$A:$A</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'item supplier'!$A:$F</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">location!$A:$A</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">operation!$A:$H</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">operation!$A:$I</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'operation material'!$A:$D</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">parameter!$A:$C</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">parameter!$A:$C</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$H</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">suboperation!$A:$C</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">supplier!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -141,9 +140,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>Suboperation</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -214,12 +210,15 @@
   </si>
   <si>
     <t>lazydelay</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
@@ -571,22 +570,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -639,607 +638,555 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1048576"/>
+  <autoFilter ref="A1:H1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1296000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1814400</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1048576" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3600</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1048576" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.9296875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>49</v>
       </c>
       <c r="B7">
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>57</v>
       </c>
       <c r="B10">
         <v>1800</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A1048576"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A1048576"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.9296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A1048576"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A1048576"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>1296000</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>1814400</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F1048576"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>3600</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H1048576"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D1048576"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C1048576"/>
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>